--- a/Engine/Unity/3.x/Learning_01/Example/Packages/.module.unitycommon@1.7.0/Templates/Tables/MissionInfo/T_MissionInfoTable.xlsx
+++ b/Engine/Unity/3.x/Learning_01/Example/Packages/.module.unitycommon@1.7.0/Templates/Tables/MissionInfo/T_MissionInfoTable.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -32,12 +32,24 @@
   <si>
     <t>Description</t>
   </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>샘플 자유 미션 정보</t>
+  </si>
+  <si>
+    <t>샘플 일일 미션 정보</t>
+  </si>
+  <si>
+    <t>샘플 이벤트 미션 정보</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -47,6 +59,7 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -62,12 +75,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -318,7 +334,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="15.0" customHeight="1"/>
+    <row r="2" ht="15.0" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>-1.0</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="3" ht="15.0" customHeight="1"/>
     <row r="4" ht="15.0" customHeight="1"/>
     <row r="5" ht="15.0" customHeight="1"/>
@@ -1356,7 +1391,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="15.0" customHeight="1"/>
+    <row r="2" ht="15.0" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1.0E7</v>
+      </c>
+      <c r="E2" s="2">
+        <v>-1.0</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="3" ht="15.0" customHeight="1"/>
     <row r="4" ht="15.0" customHeight="1"/>
     <row r="5" ht="15.0" customHeight="1"/>
@@ -2369,6 +2423,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="5" width="14.43"/>
+    <col customWidth="1" min="6" max="6" width="17.57"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -2388,6 +2446,26 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="15.0" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2.0E7</v>
+      </c>
+      <c r="E2" s="2">
+        <v>-1.0</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
